--- a/game/assets/i18n/zones.xlsx
+++ b/game/assets/i18n/zones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmich\Documents\GitHub\aube\game\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29D336D-5F86-46DA-9952-6E6EE0497430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DDCDA7-AC8C-4570-9B07-BA3CF5A3704D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>clés</t>
   </si>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>Accès Restreint</t>
+  </si>
+  <si>
+    <t>Door to administration</t>
+  </si>
+  <si>
+    <t>Porte de l'administration</t>
+  </si>
+  <si>
+    <t>Door to canteen</t>
+  </si>
+  <si>
+    <t>Porte de la cantine</t>
   </si>
 </sst>
 </file>
@@ -441,19 +453,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -469,7 +481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -477,7 +489,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -485,7 +497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -493,7 +505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -501,7 +513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -509,7 +521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -517,7 +529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -525,12 +537,28 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/game/assets/i18n/zones.xlsx
+++ b/game/assets/i18n/zones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmich\Documents\GitHub\aube\game\assets\i18n\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\aube\game\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DDCDA7-AC8C-4570-9B07-BA3CF5A3704D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A42169-5BBD-4EC7-99E0-D5771AB690FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>clés</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>Porte de la cantine</t>
+  </si>
+  <si>
+    <t>Door to the restricted area</t>
+  </si>
+  <si>
+    <t>Porte de la zone à accès restreint</t>
   </si>
 </sst>
 </file>
@@ -453,19 +459,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -481,7 +487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -489,7 +495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -497,7 +503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -505,7 +511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -513,7 +519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -521,7 +527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -529,7 +535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -537,7 +543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -545,7 +551,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -553,12 +559,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/game/assets/i18n/zones.xlsx
+++ b/game/assets/i18n/zones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\aube\game\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A42169-5BBD-4EC7-99E0-D5771AB690FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D067EB-538E-4802-87C6-8E529BC65C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>clés</t>
   </si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t>Porte de la zone à accès restreint</t>
+  </si>
+  <si>
+    <t>Entrée de la station</t>
+  </si>
+  <si>
+    <t>Station entrance</t>
+  </si>
+  <si>
+    <t>Station</t>
   </si>
 </sst>
 </file>
@@ -459,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,6 +584,22 @@
         <v>23</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
